--- a/simulation_data/iterative_algorithm/i_error_level_3_percent_water_80.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_3_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.25350497921885</v>
+        <v>89.63256057035686</v>
       </c>
       <c r="D2" t="n">
-        <v>5.238993212189032</v>
+        <v>4.808439567136651</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.26071178851844</v>
+        <v>89.40376695058953</v>
       </c>
       <c r="D3" t="n">
-        <v>6.51390239710296</v>
+        <v>5.596481810541362</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.06276090786801</v>
+        <v>87.40024752024568</v>
       </c>
       <c r="D4" t="n">
-        <v>5.375054171425777</v>
+        <v>4.889218582589969</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.33090853580944</v>
+        <v>87.58800694774891</v>
       </c>
       <c r="D5" t="n">
-        <v>4.978198559236977</v>
+        <v>5.409771849692539</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.9694366774883</v>
+        <v>86.07103179675981</v>
       </c>
       <c r="D6" t="n">
-        <v>5.349643025680024</v>
+        <v>5.149437669970634</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.12949104098648</v>
+        <v>85.77438639959766</v>
       </c>
       <c r="D7" t="n">
-        <v>5.310676436675113</v>
+        <v>4.754351935033268</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.05306938183821</v>
+        <v>83.44208267477329</v>
       </c>
       <c r="D8" t="n">
-        <v>5.477403652259744</v>
+        <v>5.219826024200858</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>84.35262044542814</v>
+        <v>83.13964879005952</v>
       </c>
       <c r="D9" t="n">
-        <v>5.316889384289496</v>
+        <v>4.846293981712961</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>80.68782841937266</v>
+        <v>81.71279744209669</v>
       </c>
       <c r="D10" t="n">
-        <v>4.808414569254808</v>
+        <v>5.155010936753571</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.10864190986537</v>
+        <v>80.81653385641576</v>
       </c>
       <c r="D11" t="n">
-        <v>6.092178472704335</v>
+        <v>5.311497128818937</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.04108002570493</v>
+        <v>79.88415268199479</v>
       </c>
       <c r="D12" t="n">
-        <v>5.65213674343885</v>
+        <v>5.858173886339642</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.89038343202432</v>
+        <v>78.84274821629575</v>
       </c>
       <c r="D13" t="n">
-        <v>5.464974660566059</v>
+        <v>5.160378811702035</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.71126005950313</v>
+        <v>78.16216286461946</v>
       </c>
       <c r="D14" t="n">
-        <v>5.238690327758185</v>
+        <v>5.10054225055427</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.86943165610674</v>
+        <v>76.55887849795255</v>
       </c>
       <c r="D15" t="n">
-        <v>5.769118957556818</v>
+        <v>4.870353498762088</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.87329645667081</v>
+        <v>76.19227293325405</v>
       </c>
       <c r="D16" t="n">
-        <v>5.735026134872834</v>
+        <v>4.93642230090612</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.53360481042391</v>
+        <v>74.71226465945706</v>
       </c>
       <c r="D17" t="n">
-        <v>5.928246944842559</v>
+        <v>5.097308007925871</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.72943569763021</v>
+        <v>75.32850590965165</v>
       </c>
       <c r="D18" t="n">
-        <v>5.746837522084961</v>
+        <v>5.072600654600115</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.78873509870252</v>
+        <v>73.46099213387188</v>
       </c>
       <c r="D19" t="n">
-        <v>5.004674125578153</v>
+        <v>6.044080460397217</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.90164389172575</v>
+        <v>71.62037132758616</v>
       </c>
       <c r="D20" t="n">
-        <v>5.664563929313305</v>
+        <v>4.860582678990375</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.12611730076301</v>
+        <v>70.24302317968508</v>
       </c>
       <c r="D21" t="n">
-        <v>4.972300939802523</v>
+        <v>5.129767070534811</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.42524896423527</v>
+        <v>69.45980469585484</v>
       </c>
       <c r="D22" t="n">
-        <v>5.241660380660078</v>
+        <v>5.351123483492957</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.95973648716719</v>
+        <v>69.34674284613504</v>
       </c>
       <c r="D23" t="n">
-        <v>5.023419171879494</v>
+        <v>5.038460882363616</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.12727148289446</v>
+        <v>67.34590045907139</v>
       </c>
       <c r="D24" t="n">
-        <v>5.954229049302788</v>
+        <v>5.021757990702987</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.93378168067666</v>
+        <v>67.70567579719244</v>
       </c>
       <c r="D25" t="n">
-        <v>5.59195768910639</v>
+        <v>5.439238370321227</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.89085911664193</v>
+        <v>65.93942683177961</v>
       </c>
       <c r="D26" t="n">
-        <v>5.323359530701627</v>
+        <v>5.619516866982504</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.3456162054063</v>
+        <v>64.08095090148284</v>
       </c>
       <c r="D27" t="n">
-        <v>5.305162954782705</v>
+        <v>5.318421866161793</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.22508495031029</v>
+        <v>63.50037905411595</v>
       </c>
       <c r="D28" t="n">
-        <v>4.857696073111729</v>
+        <v>4.673323977472054</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>61.81168556437998</v>
+        <v>62.67402409574461</v>
       </c>
       <c r="D29" t="n">
-        <v>5.410327059782126</v>
+        <v>6.134567636541253</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.48732962041559</v>
+        <v>62.50380371609053</v>
       </c>
       <c r="D30" t="n">
-        <v>6.252841038941054</v>
+        <v>5.687231766987274</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.48140189559439</v>
+        <v>60.99978827932475</v>
       </c>
       <c r="D31" t="n">
-        <v>5.28257227465084</v>
+        <v>4.877353313368954</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.61531522072013</v>
+        <v>59.38772539145619</v>
       </c>
       <c r="D32" t="n">
-        <v>5.847739832564225</v>
+        <v>4.440715958680684</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.20540599845987</v>
+        <v>59.47602302460613</v>
       </c>
       <c r="D33" t="n">
-        <v>5.367329221674694</v>
+        <v>5.037077121669838</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.5457126471443</v>
+        <v>58.39727667114072</v>
       </c>
       <c r="D34" t="n">
-        <v>5.727452687214934</v>
+        <v>5.822427317079346</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.38523539564571</v>
+        <v>56.15007740673942</v>
       </c>
       <c r="D35" t="n">
-        <v>5.767996441880345</v>
+        <v>5.12236064035411</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.82386953371621</v>
+        <v>56.26469593248489</v>
       </c>
       <c r="D36" t="n">
-        <v>5.339572609055323</v>
+        <v>5.196165636191885</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>56.22017574517085</v>
+        <v>55.03582921144321</v>
       </c>
       <c r="D37" t="n">
-        <v>5.188431354435972</v>
+        <v>5.253529646521256</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>52.94717450338053</v>
+        <v>53.31971473761926</v>
       </c>
       <c r="D38" t="n">
-        <v>5.401146963930977</v>
+        <v>5.805980893253638</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.79966463537219</v>
+        <v>52.88176493952628</v>
       </c>
       <c r="D39" t="n">
-        <v>5.556858973198436</v>
+        <v>5.266707221279169</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.83881012178931</v>
+        <v>51.68424513509042</v>
       </c>
       <c r="D40" t="n">
-        <v>5.862965281397968</v>
+        <v>4.952930514617998</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.43243013036815</v>
+        <v>50.9995864741145</v>
       </c>
       <c r="D41" t="n">
-        <v>5.300250826859569</v>
+        <v>4.921272879441958</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.49041374300854</v>
+        <v>49.46115140086301</v>
       </c>
       <c r="D42" t="n">
-        <v>6.151007438573746</v>
+        <v>5.401531788450028</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.94929176010958</v>
+        <v>48.86112848140416</v>
       </c>
       <c r="D43" t="n">
-        <v>5.372266624183673</v>
+        <v>5.124823394652513</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.38078039594673</v>
+        <v>48.08616893793159</v>
       </c>
       <c r="D44" t="n">
-        <v>5.377029091957398</v>
+        <v>5.063844959100978</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.19842655982961</v>
+        <v>46.38795426714052</v>
       </c>
       <c r="D45" t="n">
-        <v>5.36517412026721</v>
+        <v>5.032262897967778</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>44.99990517335524</v>
+        <v>44.65965685829139</v>
       </c>
       <c r="D46" t="n">
-        <v>5.164534645557388</v>
+        <v>5.368842135942958</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.80567490479855</v>
+        <v>45.18978930324735</v>
       </c>
       <c r="D47" t="n">
-        <v>5.61988981012003</v>
+        <v>5.642652617197777</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.68079907718711</v>
+        <v>43.48349435006434</v>
       </c>
       <c r="D48" t="n">
-        <v>5.101089981921238</v>
+        <v>4.967983258963305</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.92882894679493</v>
+        <v>42.77515472145734</v>
       </c>
       <c r="D49" t="n">
-        <v>5.314019468096133</v>
+        <v>5.43152017438738</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.80479456748254</v>
+        <v>41.39380840621113</v>
       </c>
       <c r="D50" t="n">
-        <v>5.071541534949527</v>
+        <v>5.012861336718637</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.61073312994255</v>
+        <v>41.70590703116279</v>
       </c>
       <c r="D51" t="n">
-        <v>5.154609388292355</v>
+        <v>5.308697714192296</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.06042918242657</v>
+        <v>39.80818437509846</v>
       </c>
       <c r="D52" t="n">
-        <v>6.170891648253602</v>
+        <v>4.971213308814569</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.21141124950348</v>
+        <v>39.70655974069683</v>
       </c>
       <c r="D53" t="n">
-        <v>4.764741599355074</v>
+        <v>5.541162701875116</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.94064782282105</v>
+        <v>37.56019321537374</v>
       </c>
       <c r="D54" t="n">
-        <v>5.329083345175574</v>
+        <v>5.681536072064914</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.60958041330305</v>
+        <v>36.431621424635</v>
       </c>
       <c r="D55" t="n">
-        <v>5.435159467227288</v>
+        <v>6.03535903812591</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.09287421187154</v>
+        <v>36.4110981335153</v>
       </c>
       <c r="D56" t="n">
-        <v>5.523402198841856</v>
+        <v>6.131795786732742</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.57631613208734</v>
+        <v>34.26393787320222</v>
       </c>
       <c r="D57" t="n">
-        <v>4.764506023719471</v>
+        <v>5.229658452078307</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.36916083089412</v>
+        <v>33.75868957052973</v>
       </c>
       <c r="D58" t="n">
-        <v>6.011922613055452</v>
+        <v>5.111705994801968</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.34613443196966</v>
+        <v>32.90986404464756</v>
       </c>
       <c r="D59" t="n">
-        <v>5.276269358178352</v>
+        <v>6.55992868284115</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.90426259640917</v>
+        <v>31.49902833770302</v>
       </c>
       <c r="D60" t="n">
-        <v>5.200654281754361</v>
+        <v>5.978053356997519</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.55981690874538</v>
+        <v>31.77198659486256</v>
       </c>
       <c r="D61" t="n">
-        <v>5.825142704978873</v>
+        <v>6.121597179920419</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.46773623926601</v>
+        <v>29.86427861281969</v>
       </c>
       <c r="D62" t="n">
-        <v>5.369441861572327</v>
+        <v>5.141930319104866</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.80579843392211</v>
+        <v>28.5185783278305</v>
       </c>
       <c r="D63" t="n">
-        <v>5.681094709656762</v>
+        <v>5.389991146300078</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.06394768489546</v>
+        <v>27.35218385956715</v>
       </c>
       <c r="D64" t="n">
-        <v>5.206845508555039</v>
+        <v>4.765085965915448</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.36998221523985</v>
+        <v>26.81868269507452</v>
       </c>
       <c r="D65" t="n">
-        <v>5.26713748872332</v>
+        <v>5.681187495834218</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.87126358549651</v>
+        <v>25.83331062984213</v>
       </c>
       <c r="D66" t="n">
-        <v>5.476063776497839</v>
+        <v>5.248475891936434</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.74102184483904</v>
+        <v>24.62961915938653</v>
       </c>
       <c r="D67" t="n">
-        <v>5.464848519456583</v>
+        <v>5.461079827807152</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.04013398041419</v>
+        <v>24.41759387128737</v>
       </c>
       <c r="D68" t="n">
-        <v>5.576688733640084</v>
+        <v>5.209560437376904</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.95870934573173</v>
+        <v>23.22373024854483</v>
       </c>
       <c r="D69" t="n">
-        <v>4.70930442754891</v>
+        <v>4.783712488208709</v>
       </c>
     </row>
   </sheetData>
